--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1277368.710755007</v>
+        <v>1274668.061131699</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>227.9187527607133</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
+        <v>12.83417464571001</v>
+      </c>
+      <c r="H2" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>72.36698404190648</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
@@ -798,13 +798,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>120.2299740670052</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>26.95228090977687</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -817,28 +817,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.52670189341621</v>
       </c>
       <c r="E4" t="n">
-        <v>89.28741136156206</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12.63848968152079</v>
+        <v>288.5102079953242</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>383.0198440937149</v>
       </c>
       <c r="G5" t="n">
         <v>12.42130226825858</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.38935721520075</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3593638980478</v>
+        <v>143.3593638980477</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.4823667709296</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1151380880864</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.0198440937146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>115.0137567536261</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>115.3760425205113</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.34583147339769</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.31604239259342</v>
+        <v>36.31604239259338</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.436963001677569</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0466996907028</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>193.950580588878</v>
@@ -1035,7 +1035,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1060,13 +1060,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>67.86337155150767</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6984667036611</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>150.735559994784</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.978535422478089</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1773223714492</v>
+        <v>119.1773223714491</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4916274983621</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2485286662292</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>207.1722518073692</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>399.2074874582131</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>2.739389635061188</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>90.69811547110028</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>158.8647187371888</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1373,13 +1373,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4296912136494</v>
@@ -1388,7 +1388,7 @@
         <v>289.5687166806772</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238013</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114097</v>
+        <v>97.97552699114094</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>198.3655380299307</v>
+        <v>358.6087856860941</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>87.05432226458123</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035181</v>
+        <v>9.753166794035167</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>124.1004521009535</v>
       </c>
       <c r="D13" t="n">
-        <v>124.100452100953</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146334</v>
+        <v>79.00824149146332</v>
       </c>
       <c r="S13" t="n">
         <v>185.9226570076761</v>
@@ -1613,13 +1613,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>331.6388439349685</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754645</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>100.3634594877653</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>81.37259901119252</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>67.18075159108359</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>99.97427419833988</v>
       </c>
       <c r="I19" t="n">
-        <v>36.43062059490527</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.522998336589</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2239,16 +2239,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="E22" t="n">
-        <v>22.65115569188777</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2485,7 +2485,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>26.13627195705746</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>13.72582864853805</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2719,13 +2719,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>36.43062059490425</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833465</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016477</v>
       </c>
       <c r="T31" t="n">
-        <v>172.0260335000788</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833826</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>73.57849775386876</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41.33703994142931</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>103.168699193619</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833951</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187869</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766857</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>103.1686991936192</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634.167062227511</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="C2" t="n">
-        <v>634.167062227511</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="D2" t="n">
-        <v>634.167062227511</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="E2" t="n">
-        <v>634.167062227511</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="F2" t="n">
-        <v>403.9460998429521</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917602</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052543</v>
       </c>
       <c r="L2" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4358,22 +4358,22 @@
         <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946889</v>
+        <v>827.4467551159955</v>
       </c>
       <c r="U2" t="n">
-        <v>900.5447187946889</v>
+        <v>573.7617370571243</v>
       </c>
       <c r="V2" t="n">
-        <v>900.5447187946889</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="W2" t="n">
-        <v>900.5447187946889</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="X2" t="n">
-        <v>900.5447187946889</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="Y2" t="n">
-        <v>634.167062227511</v>
+        <v>307.3840804899463</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.46256898749988</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="C3" t="n">
-        <v>65.46256898749988</v>
+        <v>170.0315200613718</v>
       </c>
       <c r="D3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>46.96951069551282</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957468</v>
+        <v>121.653531464967</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>268.3979551252636</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>858.0464416374622</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>629.9105956742757</v>
+        <v>808.3837902496282</v>
       </c>
       <c r="V3" t="n">
-        <v>394.758487442533</v>
+        <v>573.2316820178855</v>
       </c>
       <c r="W3" t="n">
-        <v>273.3140691930327</v>
+        <v>573.2316820178855</v>
       </c>
       <c r="X3" t="n">
-        <v>65.46256898749988</v>
+        <v>546.0071558463937</v>
       </c>
       <c r="Y3" t="n">
-        <v>65.46256898749988</v>
+        <v>338.2468570814398</v>
       </c>
     </row>
     <row r="4">
@@ -4462,37 +4462,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>719.2759572512189</v>
+        <v>224.9087497860236</v>
       </c>
       <c r="C4" t="n">
-        <v>719.2759572512189</v>
+        <v>55.97256685811666</v>
       </c>
       <c r="D4" t="n">
-        <v>719.2759572512189</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>629.0866528456006</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>482.1967053476902</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>313.6273447026937</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>159.7059716361716</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
         <v>527.7368878375336</v>
@@ -4501,7 +4501,7 @@
         <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4519,19 +4519,19 @@
         <v>719.2759572512189</v>
       </c>
       <c r="U4" t="n">
-        <v>719.2759572512189</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="V4" t="n">
-        <v>719.2759572512189</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="W4" t="n">
-        <v>719.2759572512189</v>
+        <v>452.8983006840409</v>
       </c>
       <c r="X4" t="n">
-        <v>719.2759572512189</v>
+        <v>224.9087497860236</v>
       </c>
       <c r="Y4" t="n">
-        <v>719.2759572512189</v>
+        <v>224.9087497860236</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50.1338582446386</v>
+        <v>530.4703790195924</v>
       </c>
       <c r="C5" t="n">
-        <v>50.1338582446386</v>
+        <v>530.4703790195924</v>
       </c>
       <c r="D5" t="n">
-        <v>50.1338582446386</v>
+        <v>530.4703790195924</v>
       </c>
       <c r="E5" t="n">
-        <v>50.1338582446386</v>
+        <v>530.4703790195924</v>
       </c>
       <c r="F5" t="n">
-        <v>43.18835749543513</v>
+        <v>143.5816476117996</v>
       </c>
       <c r="G5" t="n">
-        <v>30.64158752749717</v>
+        <v>131.0348776438616</v>
       </c>
       <c r="H5" t="n">
-        <v>30.64158752749717</v>
+        <v>131.0348776438616</v>
       </c>
       <c r="I5" t="n">
-        <v>30.64158752749717</v>
+        <v>30.64158752749719</v>
       </c>
       <c r="J5" t="n">
-        <v>93.51877468281367</v>
+        <v>93.51877468281378</v>
       </c>
       <c r="K5" t="n">
-        <v>238.493897245297</v>
+        <v>238.4938972452973</v>
       </c>
       <c r="L5" t="n">
-        <v>455.2501182192533</v>
+        <v>455.2501182192537</v>
       </c>
       <c r="M5" t="n">
-        <v>728.1026159494201</v>
+        <v>728.1026159494209</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.983960730198</v>
+        <v>1009.983960730199</v>
       </c>
       <c r="O5" t="n">
-        <v>1262.821260145364</v>
+        <v>1262.821260145365</v>
       </c>
       <c r="P5" t="n">
-        <v>1444.111044739593</v>
+        <v>1444.111044739594</v>
       </c>
       <c r="Q5" t="n">
-        <v>1532.079376374858</v>
+        <v>1532.07937637486</v>
       </c>
       <c r="R5" t="n">
-        <v>1532.079376374858</v>
+        <v>1532.07937637486</v>
       </c>
       <c r="S5" t="n">
-        <v>1387.271938094002</v>
+        <v>1387.271938094003</v>
       </c>
       <c r="T5" t="n">
-        <v>1387.271938094002</v>
+        <v>1174.663486810236</v>
       </c>
       <c r="U5" t="n">
-        <v>1133.620283459571</v>
+        <v>1174.663486810236</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5573961160006</v>
+        <v>1174.663486810236</v>
       </c>
       <c r="W5" t="n">
-        <v>449.7887408458865</v>
+        <v>821.8948315401219</v>
       </c>
       <c r="X5" t="n">
-        <v>449.7887408458865</v>
+        <v>821.8948315401219</v>
       </c>
       <c r="Y5" t="n">
-        <v>62.90000943809395</v>
+        <v>821.8948315401219</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>282.1950384229542</v>
+        <v>517.190454790059</v>
       </c>
       <c r="C6" t="n">
-        <v>282.1950384229542</v>
+        <v>342.737425508932</v>
       </c>
       <c r="D6" t="n">
-        <v>282.1950384229542</v>
+        <v>226.5619136365824</v>
       </c>
       <c r="E6" t="n">
-        <v>282.1950384229542</v>
+        <v>67.32445863112687</v>
       </c>
       <c r="F6" t="n">
-        <v>282.1950384229542</v>
+        <v>67.32445863112687</v>
       </c>
       <c r="G6" t="n">
-        <v>165.6535813315286</v>
+        <v>67.32445863112687</v>
       </c>
       <c r="H6" t="n">
-        <v>67.32445863112689</v>
+        <v>67.32445863112687</v>
       </c>
       <c r="I6" t="n">
-        <v>30.64158752749717</v>
+        <v>30.64158752749719</v>
       </c>
       <c r="J6" t="n">
-        <v>49.27296248835609</v>
+        <v>49.2729624883562</v>
       </c>
       <c r="K6" t="n">
-        <v>387.8643287482162</v>
+        <v>159.2717745831311</v>
       </c>
       <c r="L6" t="n">
-        <v>582.0938474613416</v>
+        <v>448.9177571045004</v>
       </c>
       <c r="M6" t="n">
-        <v>828.1074027572779</v>
+        <v>828.1074027572781</v>
       </c>
       <c r="N6" t="n">
-        <v>1095.040849741464</v>
+        <v>1095.040849741465</v>
       </c>
       <c r="O6" t="n">
         <v>1317.013008851465</v>
       </c>
       <c r="P6" t="n">
-        <v>1475.83216970519</v>
+        <v>1475.832169705191</v>
       </c>
       <c r="Q6" t="n">
-        <v>1532.079376374858</v>
+        <v>1532.07937637486</v>
       </c>
       <c r="R6" t="n">
-        <v>1527.597595565083</v>
+        <v>1532.07937637486</v>
       </c>
       <c r="S6" t="n">
-        <v>1383.105979715888</v>
+        <v>1532.07937637486</v>
       </c>
       <c r="T6" t="n">
-        <v>1187.196302353385</v>
+        <v>1336.169699012356</v>
       </c>
       <c r="U6" t="n">
-        <v>1187.196302353385</v>
+        <v>1336.169699012356</v>
       </c>
       <c r="V6" t="n">
-        <v>952.0441941216425</v>
+        <v>1101.017590780614</v>
       </c>
       <c r="W6" t="n">
-        <v>697.8068373934409</v>
+        <v>1101.017590780614</v>
       </c>
       <c r="X6" t="n">
-        <v>489.9553371879081</v>
+        <v>893.1660905750809</v>
       </c>
       <c r="Y6" t="n">
-        <v>282.1950384229542</v>
+        <v>685.4057918101271</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>568.7193468157418</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="C7" t="n">
-        <v>568.7193468157418</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="D7" t="n">
-        <v>568.7193468157418</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="E7" t="n">
-        <v>500.1704866627038</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="F7" t="n">
-        <v>353.2805391647934</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="G7" t="n">
-        <v>184.8982495651356</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="H7" t="n">
-        <v>32.64010815626292</v>
+        <v>30.64158752749719</v>
       </c>
       <c r="I7" t="n">
-        <v>32.64010815626292</v>
+        <v>30.64158752749719</v>
       </c>
       <c r="J7" t="n">
-        <v>30.64158752749717</v>
+        <v>30.64158752749719</v>
       </c>
       <c r="K7" t="n">
-        <v>157.2595961747002</v>
+        <v>157.2595961747003</v>
       </c>
       <c r="L7" t="n">
-        <v>374.8134887914619</v>
+        <v>374.8134887914621</v>
       </c>
       <c r="M7" t="n">
-        <v>614.5826883437687</v>
+        <v>614.5826883437692</v>
       </c>
       <c r="N7" t="n">
-        <v>854.0853286630866</v>
+        <v>854.0853286630871</v>
       </c>
       <c r="O7" t="n">
-        <v>1059.288486109132</v>
+        <v>1059.288486109133</v>
       </c>
       <c r="P7" t="n">
         <v>1211.35455501623</v>
@@ -4747,28 +4747,28 @@
         <v>1233.202138767124</v>
       </c>
       <c r="R7" t="n">
-        <v>1112.821005058589</v>
+        <v>1112.82100505859</v>
       </c>
       <c r="S7" t="n">
-        <v>1112.821005058589</v>
+        <v>909.2941085955979</v>
       </c>
       <c r="T7" t="n">
-        <v>1112.821005058589</v>
+        <v>909.2941085955979</v>
       </c>
       <c r="U7" t="n">
-        <v>1112.821005058589</v>
+        <v>620.1541806499117</v>
       </c>
       <c r="V7" t="n">
-        <v>858.1365168527024</v>
+        <v>410.8892798343873</v>
       </c>
       <c r="W7" t="n">
-        <v>568.7193468157418</v>
+        <v>410.8892798343873</v>
       </c>
       <c r="X7" t="n">
-        <v>568.7193468157418</v>
+        <v>182.8997289363699</v>
       </c>
       <c r="Y7" t="n">
-        <v>568.7193468157418</v>
+        <v>182.8997289363699</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1878.50778578647</v>
+        <v>1599.080600298115</v>
       </c>
       <c r="C8" t="n">
-        <v>1509.545268846058</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="D8" t="n">
-        <v>1151.279570239308</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E8" t="n">
-        <v>765.4913176410637</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>758.5458168918602</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.50778578647</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X8" t="n">
-        <v>1878.50778578647</v>
+        <v>1601.84766053555</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.50778578647</v>
+        <v>1599.080600298115</v>
       </c>
     </row>
     <row r="9">
@@ -4872,37 +4872,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919905</v>
+        <v>884.9085321458215</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.93511215121</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748155</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924317</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756614</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.9138669598622</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="C10" t="n">
-        <v>292.9776840319553</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D10" t="n">
-        <v>142.8610446196195</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1373.393300724232</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1084.27496322807</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>829.5904750221833</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.344461831649</v>
+        <v>829.5904750221833</v>
       </c>
       <c r="X10" t="n">
-        <v>864.354910933632</v>
+        <v>601.600924124166</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901019</v>
+        <v>380.8083449806359</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2309.582538042864</v>
+        <v>1563.167068012547</v>
       </c>
       <c r="C11" t="n">
-        <v>1940.620021102452</v>
+        <v>1194.204551072135</v>
       </c>
       <c r="D11" t="n">
-        <v>1582.354322495702</v>
+        <v>1194.204551072135</v>
       </c>
       <c r="E11" t="n">
-        <v>1196.566069897458</v>
+        <v>808.4162984738907</v>
       </c>
       <c r="F11" t="n">
-        <v>785.5801651078501</v>
+        <v>808.4162984738907</v>
       </c>
       <c r="G11" t="n">
-        <v>371.0047194374972</v>
+        <v>393.8408528035377</v>
       </c>
       <c r="H11" t="n">
-        <v>78.51106622469189</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469189</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386835</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420326</v>
+        <v>704.5155104420328</v>
       </c>
       <c r="L11" t="n">
         <v>1232.419981301226</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878111</v>
+        <v>1851.484858878112</v>
       </c>
       <c r="N11" t="n">
         <v>2485.180661765427</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687104</v>
+        <v>3070.226377687105</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856286</v>
+        <v>3535.048359856287</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882244</v>
+        <v>3835.937563882245</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234594</v>
+        <v>3925.553311234595</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455664</v>
+        <v>3826.588132455665</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971443</v>
+        <v>3622.786021971445</v>
       </c>
       <c r="U11" t="n">
-        <v>3622.786021971443</v>
+        <v>3369.295305604053</v>
       </c>
       <c r="V11" t="n">
-        <v>3622.786021971443</v>
+        <v>3038.232418260483</v>
       </c>
       <c r="W11" t="n">
-        <v>3270.017366701329</v>
+        <v>2685.463762990368</v>
       </c>
       <c r="X11" t="n">
-        <v>2896.551608440249</v>
+        <v>2311.998004729288</v>
       </c>
       <c r="Y11" t="n">
-        <v>2696.182378106986</v>
+        <v>1949.766908076668</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>88.36274985503046</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469189</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469189</v>
+        <v>196.8120623792131</v>
       </c>
       <c r="K12" t="n">
-        <v>78.51106622469189</v>
+        <v>477.1621322376508</v>
       </c>
       <c r="L12" t="n">
-        <v>480.1171086843882</v>
+        <v>900.4499396649609</v>
       </c>
       <c r="M12" t="n">
-        <v>993.430882928278</v>
+        <v>1413.763713908851</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279345</v>
+        <v>1518.698809735872</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>1991.670362601622</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>203.8650582458566</v>
+        <v>203.865058245857</v>
       </c>
       <c r="C13" t="n">
-        <v>203.8650582458565</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="D13" t="n">
-        <v>78.51106622469189</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="E13" t="n">
-        <v>78.51106622469189</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="F13" t="n">
-        <v>78.51106622469189</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="G13" t="n">
-        <v>78.51106622469189</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469189</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469189</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600401</v>
+        <v>139.0818334600402</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457706</v>
+        <v>368.4550473457707</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888921</v>
+        <v>717.5002252888922</v>
       </c>
       <c r="M13" t="n">
         <v>1095.908548779222</v>
@@ -5215,34 +5215,34 @@
         <v>1800.96773471585</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.002133082522</v>
+        <v>2060.002133082523</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551106</v>
+        <v>2155.909043551107</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014274</v>
+        <v>2076.102739014275</v>
       </c>
       <c r="S13" t="n">
-        <v>1888.302075370157</v>
+        <v>1888.302075370158</v>
       </c>
       <c r="T13" t="n">
         <v>1667.488017920203</v>
       </c>
       <c r="U13" t="n">
-        <v>1378.397311360491</v>
+        <v>1378.397311360492</v>
       </c>
       <c r="V13" t="n">
-        <v>1123.712823154604</v>
+        <v>1123.712823154605</v>
       </c>
       <c r="W13" t="n">
-        <v>834.2956531176437</v>
+        <v>834.2956531176442</v>
       </c>
       <c r="X13" t="n">
-        <v>606.3061022196264</v>
+        <v>606.3061022196268</v>
       </c>
       <c r="Y13" t="n">
-        <v>385.5135230760962</v>
+        <v>385.5135230760967</v>
       </c>
     </row>
     <row r="14">
@@ -5261,10 +5261,10 @@
         <v>1539.196732007881</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.408479409637</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200289</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
@@ -5276,10 +5276,10 @@
         <v>92.81162322608048</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251932</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128751</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L14" t="n">
         <v>1461.45766301865</v>
@@ -5303,7 +5303,7 @@
         <v>4640.581161304024</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070874</v>
+        <v>4555.113898070873</v>
       </c>
       <c r="T14" t="n">
         <v>4353.904749750192</v>
@@ -5352,31 +5352,31 @@
         <v>92.81162322608048</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608048</v>
+        <v>93.85065580060304</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608048</v>
+        <v>241.4986375524489</v>
       </c>
       <c r="K15" t="n">
-        <v>423.3203657894392</v>
+        <v>572.0073801158076</v>
       </c>
       <c r="L15" t="n">
-        <v>914.0526986331903</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>1506.071052885318</v>
+        <v>1654.758067211686</v>
       </c>
       <c r="N15" t="n">
-        <v>2128.167016284654</v>
+        <v>1654.758067211686</v>
       </c>
       <c r="O15" t="n">
-        <v>2552.77562977024</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>677.2291802831421</v>
+        <v>494.0589900220724</v>
       </c>
       <c r="C16" t="n">
-        <v>508.2929973552352</v>
+        <v>325.1228070941654</v>
       </c>
       <c r="D16" t="n">
-        <v>406.915765549412</v>
+        <v>175.0061676818298</v>
       </c>
       <c r="E16" t="n">
-        <v>406.915765549412</v>
+        <v>175.0061676818298</v>
       </c>
       <c r="F16" t="n">
-        <v>260.0258180515017</v>
+        <v>175.0061676818298</v>
       </c>
       <c r="G16" t="n">
         <v>92.81162322608048</v>
@@ -5461,25 +5461,25 @@
         <v>2360.516429368668</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.516429368668</v>
+        <v>2177.346239107598</v>
       </c>
       <c r="T16" t="n">
-        <v>2140.83764708305</v>
+        <v>1957.66745682198</v>
       </c>
       <c r="U16" t="n">
-        <v>1851.761433397777</v>
+        <v>1668.591243136707</v>
       </c>
       <c r="V16" t="n">
-        <v>1597.07694519189</v>
+        <v>1413.90675493082</v>
       </c>
       <c r="W16" t="n">
-        <v>1307.659775154929</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>1079.670224256912</v>
+        <v>896.5000339958422</v>
       </c>
       <c r="Y16" t="n">
-        <v>858.8776451133818</v>
+        <v>675.707454852312</v>
       </c>
     </row>
     <row r="17">
@@ -5492,13 +5492,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5510,10 +5510,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5531,10 +5531,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5546,16 +5546,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327652</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048583</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925224</v>
+        <v>194.8007783998303</v>
       </c>
       <c r="E19" t="n">
-        <v>444.7013164925224</v>
+        <v>194.8007783998303</v>
       </c>
       <c r="F19" t="n">
-        <v>297.8113689946122</v>
+        <v>194.8007783998303</v>
       </c>
       <c r="G19" t="n">
-        <v>130.6152697094922</v>
+        <v>194.8007783998303</v>
       </c>
       <c r="H19" t="n">
-        <v>130.6152697094922</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,49 +5674,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630049</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5783,16 +5783,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5835,22 +5835,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.899304487669</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C22" t="n">
-        <v>580.899304487669</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D22" t="n">
-        <v>430.7826650753334</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
         <v>261.0127623330919</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="23">
@@ -5984,16 +5984,16 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,25 +6066,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>315.9123021921482</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>315.9123021921482</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057246</v>
+        <v>727.9786782557276</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778177</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654819</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830888</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851784</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6157,10 +6157,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2420.562808876161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1359.396373079494</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y25" t="n">
-        <v>1138.603793935964</v>
+        <v>909.6271430859673</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925216</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310022</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
@@ -6455,28 +6455,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075808</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,19 +6534,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>245.2306927803937</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
         <v>680.0291294438176</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400677</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121608</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>194.800778399825</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T31" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138374</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703074</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6692,58 +6692,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.5505208511905</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487565</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831763</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625876</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1578.981115722979</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1350.991564824961</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y34" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>198.0274703142537</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7108,25 +7108,25 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V37" t="n">
         <v>1433.701365648819</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7254,19 +7254,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>194.80077839983</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>194.80077839983</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038355</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797756</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166296</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7403,28 +7403,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7436,25 +7436,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7582,37 +7582,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.0893932798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400713</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703111</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>28.18495819153173</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>71.18793141915887</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127223</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.58458098752811</v>
+        <v>34.58458098752797</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,13 +8295,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>230.9015698637226</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>96.3802664729734</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>134.5213033907487</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9393975111062</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23261,13 +23261,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238018</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,10 +23312,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9558092037176</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>187.8724006261229</v>
+        <v>27.62915296995948</v>
       </c>
     </row>
     <row r="12">
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>43.14636899767437</v>
       </c>
       <c r="D13" t="n">
-        <v>24.51502091725932</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23434,7 +23434,7 @@
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034035</v>
+        <v>89.71507747034033</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23501,13 +23501,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>50.29152613729326</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.2915261372931</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23656,16 +23656,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>48.2520135304471</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>84.1694538659744</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>40.320438647884</v>
       </c>
       <c r="I19" t="n">
-        <v>44.83521572366025</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,16 +24127,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>65.54986409393102</v>
       </c>
       <c r="E22" t="n">
-        <v>123.7828069546814</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185671</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>154.8900140445871</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>211.9838267404991</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>110.0033420516649</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393041</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>46.45968844823452</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,16 +24883,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>45.3794168272095</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>40.32043864788563</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>212.9445005827222</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>138.494940240508</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>62.35543909864982</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459174</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194413</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459317</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>960900.6918665054</v>
+        <v>960900.6918665053</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>938587.6370487169</v>
+        <v>938587.6370487167</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>938587.6370487167</v>
+        <v>938587.6370487165</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>938587.6370487167</v>
+        <v>938587.6370487165</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>938587.6370487168</v>
+        <v>938587.6370487164</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>938587.6370487167</v>
+        <v>938587.6370487165</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>938587.6370487167</v>
+        <v>938587.6370487165</v>
       </c>
     </row>
     <row r="15">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185703</v>
+        <v>492625.0619185704</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185698</v>
+        <v>492625.0619185697</v>
       </c>
       <c r="D2" t="n">
         <v>492625.0619185701</v>
@@ -26323,37 +26323,37 @@
         <v>442233.6433958228</v>
       </c>
       <c r="F2" t="n">
-        <v>481607.8629828185</v>
+        <v>481607.8629828183</v>
       </c>
       <c r="G2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="H2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="I2" t="n">
         <v>484287.9598140036</v>
-      </c>
-      <c r="I2" t="n">
-        <v>484287.9598140035</v>
       </c>
       <c r="J2" t="n">
         <v>484287.9598140037</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="O2" t="n">
         <v>484287.9598140034</v>
       </c>
       <c r="P2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140036</v>
       </c>
     </row>
     <row r="3">
@@ -26366,43 +26366,43 @@
         <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132064.909810353</v>
+        <v>132064.9098103536</v>
       </c>
       <c r="D3" t="n">
-        <v>266112.9182196366</v>
+        <v>266112.9182196363</v>
       </c>
       <c r="E3" t="n">
         <v>325187.1190357073</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051368</v>
+        <v>166521.3471051366</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557952</v>
+        <v>11167.23623557934</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.1544191139</v>
       </c>
       <c r="K3" t="n">
-        <v>30705.5373664835</v>
+        <v>30705.53736648352</v>
       </c>
       <c r="L3" t="n">
-        <v>65187.38037950853</v>
+        <v>65187.3803795086</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456847</v>
+        <v>84929.59434456844</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848881</v>
+        <v>43782.40655848876</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224748</v>
+        <v>3023.297977224802</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>251227.3656190198</v>
       </c>
       <c r="C4" t="n">
-        <v>215693.7182853458</v>
+        <v>215693.7182853456</v>
       </c>
       <c r="D4" t="n">
-        <v>140338.6838374607</v>
+        <v>140338.6838374606</v>
       </c>
       <c r="E4" t="n">
         <v>11067.91129448747</v>
@@ -26445,19 +26445,19 @@
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.0322517935</v>
+        <v>11167.03225179351</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72540.50950589721</v>
+        <v>72540.50950589725</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214717</v>
+        <v>86093.72216214718</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-501738.0874959088</v>
+        <v>-501738.0874959087</v>
       </c>
       <c r="C6" t="n">
-        <v>72325.92431697392</v>
+        <v>72325.92431697324</v>
       </c>
       <c r="D6" t="n">
-        <v>-6764.31257837193</v>
+        <v>-6764.312578371595</v>
       </c>
       <c r="E6" t="n">
-        <v>19884.89090348082</v>
+        <v>19674.92665963602</v>
       </c>
       <c r="F6" t="n">
-        <v>203783.8877332752</v>
+        <v>203737.9827377095</v>
       </c>
       <c r="G6" t="n">
-        <v>360831.1615027235</v>
+        <v>360796.4235772879</v>
       </c>
       <c r="H6" t="n">
-        <v>371998.3977383031</v>
+        <v>371963.6598128673</v>
       </c>
       <c r="I6" t="n">
-        <v>371998.3977383028</v>
+        <v>371963.659812867</v>
       </c>
       <c r="J6" t="n">
-        <v>302999.243319189</v>
+        <v>302964.5053937534</v>
       </c>
       <c r="K6" t="n">
-        <v>341292.8603718193</v>
+        <v>341258.1224463838</v>
       </c>
       <c r="L6" t="n">
-        <v>306811.0173587943</v>
+        <v>306776.2794333586</v>
       </c>
       <c r="M6" t="n">
-        <v>287068.8033937346</v>
+        <v>287034.0654682989</v>
       </c>
       <c r="N6" t="n">
-        <v>328215.9911798142</v>
+        <v>328181.2532543784</v>
       </c>
       <c r="O6" t="n">
-        <v>368975.099761078</v>
+        <v>368940.3618356423</v>
       </c>
       <c r="P6" t="n">
-        <v>371998.3977383032</v>
+        <v>371963.6598128672</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>716.7570176605217</v>
+        <v>716.7570176605221</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1212.170267494557</v>
@@ -26790,13 +26790,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.0198440937146</v>
+        <v>383.0198440937149</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086486</v>
+        <v>981.3883278086488</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326006</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>102.7020038910433</v>
+        <v>102.7020038910439</v>
       </c>
       <c r="D3" t="n">
-        <v>217.3078744570174</v>
+        <v>217.3078744570172</v>
       </c>
       <c r="E3" t="n">
         <v>278.1053753770175</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218288</v>
+        <v>145.8707812218286</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288602</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.3059640922084</v>
+        <v>119.3059640922088</v>
       </c>
       <c r="D4" t="n">
-        <v>257.5649880063241</v>
+        <v>257.564988006324</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086098</v>
+        <v>340.8034957086099</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173575</v>
+        <v>178.7569625173572</v>
       </c>
       <c r="G4" t="n">
         <v>12.56299777364234</v>
@@ -27036,19 +27036,19 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922084</v>
+        <v>119.3059640922085</v>
       </c>
       <c r="L4" t="n">
-        <v>257.5649880063239</v>
+        <v>257.5649880063242</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086101</v>
+        <v>340.8034957086099</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173575</v>
+        <v>178.7569625173572</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.3059640922084</v>
+        <v>119.3059640922088</v>
       </c>
       <c r="L4" t="n">
-        <v>257.5649880063241</v>
+        <v>257.564988006324</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086098</v>
+        <v>340.8034957086099</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173575</v>
+        <v>178.7569625173572</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364234</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>178.9572929809981</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442039</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>139.9227315613168</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27473,10 +27473,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27518,13 +27518,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>131.4650090939144</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>178.8207042937006</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>114.0887711247962</v>
       </c>
       <c r="E4" t="n">
-        <v>57.14655128500711</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117135</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>370.0953519819598</v>
+        <v>94.22363366815642</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>23.85620164799656</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>309.9653033936935</v>
       </c>
       <c r="I5" t="n">
-        <v>99.38935721520082</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.4823667709296</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1151380880864</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.21809456233899</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,25 +27692,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>32.43130881101263</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>20.42577086886348</v>
+        <v>135.8018133893748</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.34583147339769</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.436963001677512</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0466996907028</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27780,13 +27780,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>78.5705910950615</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6984667036611</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27795,7 +27795,7 @@
         <v>116.5810943629795</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.978535422478018</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,22 +27822,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4916274983621</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>222.4230353577824</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2485286662292</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>44.96539151645879</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>12.34021531474087</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>383.4985490209924</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>55.73584717546889</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,7 +28026,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>61.88397726002313</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28782,7 +28782,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>2.073837398105146e-12</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.713147794991619e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29718,7 +29718,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>-3.151399141643196e-12</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29946,7 +29946,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>-1.940255363782247e-12</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -30180,7 +30180,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30405,7 +30405,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30654,7 +30654,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>-1.940255363782247e-12</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.881435246876467</v>
+        <v>2.881435246876469</v>
       </c>
       <c r="H5" t="n">
-        <v>29.50949872207362</v>
+        <v>29.50949872207364</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0865323552051</v>
+        <v>111.0865323552052</v>
       </c>
       <c r="J5" t="n">
-        <v>244.5582147845818</v>
+        <v>244.5582147845819</v>
       </c>
       <c r="K5" t="n">
-        <v>366.5293687848627</v>
+        <v>366.5293687848629</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7120927214584</v>
+        <v>454.7120927214587</v>
       </c>
       <c r="M5" t="n">
-        <v>505.9548167930978</v>
+        <v>505.9548167930981</v>
       </c>
       <c r="N5" t="n">
-        <v>514.1416946882856</v>
+        <v>514.141694688286</v>
       </c>
       <c r="O5" t="n">
-        <v>485.4894229521577</v>
+        <v>485.489422952158</v>
       </c>
       <c r="P5" t="n">
-        <v>414.3539902948949</v>
+        <v>414.3539902948951</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.1625905161313</v>
+        <v>311.1625905161315</v>
       </c>
       <c r="R5" t="n">
-        <v>181.000956826604</v>
+        <v>181.0009568266042</v>
       </c>
       <c r="S5" t="n">
-        <v>65.66070568819755</v>
+        <v>65.6607056881976</v>
       </c>
       <c r="T5" t="n">
-        <v>12.61348279320174</v>
+        <v>12.61348279320175</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2305148197501173</v>
+        <v>0.2305148197501175</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.541703773835839</v>
+        <v>1.54170377383584</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88961276309876</v>
+        <v>14.88961276309877</v>
       </c>
       <c r="I6" t="n">
-        <v>53.08059045882166</v>
+        <v>53.0805904588217</v>
       </c>
       <c r="J6" t="n">
         <v>145.657197334201</v>
       </c>
       <c r="K6" t="n">
-        <v>248.9513501812022</v>
+        <v>248.9513501812023</v>
       </c>
       <c r="L6" t="n">
-        <v>334.7458128234352</v>
+        <v>334.7458128234354</v>
       </c>
       <c r="M6" t="n">
-        <v>390.6325746249843</v>
+        <v>390.6325746249845</v>
       </c>
       <c r="N6" t="n">
-        <v>400.9714565118045</v>
+        <v>400.9714565118048</v>
       </c>
       <c r="O6" t="n">
-        <v>366.8105465757577</v>
+        <v>366.8105465757579</v>
       </c>
       <c r="P6" t="n">
-        <v>294.3978022160736</v>
+        <v>294.3978022160737</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.7971343584134</v>
+        <v>196.7971343584136</v>
       </c>
       <c r="R6" t="n">
-        <v>95.72087115096556</v>
+        <v>95.72087115096562</v>
       </c>
       <c r="S6" t="n">
-        <v>28.63647141313498</v>
+        <v>28.63647141313499</v>
       </c>
       <c r="T6" t="n">
-        <v>6.214148105943577</v>
+        <v>6.214148105943582</v>
       </c>
       <c r="U6" t="n">
-        <v>0.101427879857621</v>
+        <v>0.1014278798576211</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.292512654797662</v>
+        <v>1.292512654797663</v>
       </c>
       <c r="H7" t="n">
-        <v>11.49161251265558</v>
+        <v>11.49161251265559</v>
       </c>
       <c r="I7" t="n">
-        <v>38.86938056427879</v>
+        <v>38.86938056427881</v>
       </c>
       <c r="J7" t="n">
-        <v>91.38064469419469</v>
+        <v>91.38064469419476</v>
       </c>
       <c r="K7" t="n">
-        <v>150.166470257401</v>
+        <v>150.1664702574012</v>
       </c>
       <c r="L7" t="n">
-        <v>192.1613814232815</v>
+        <v>192.1613814232816</v>
       </c>
       <c r="M7" t="n">
-        <v>202.6072336970553</v>
+        <v>202.6072336970554</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7896865291733</v>
+        <v>197.7896865291734</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6907886981278</v>
+        <v>182.6907886981279</v>
       </c>
       <c r="P7" t="n">
-        <v>156.3235305402553</v>
+        <v>156.3235305402554</v>
       </c>
       <c r="Q7" t="n">
         <v>108.2303096667388</v>
       </c>
       <c r="R7" t="n">
-        <v>58.11606900572031</v>
+        <v>58.11606900572035</v>
       </c>
       <c r="S7" t="n">
-        <v>22.52497053861016</v>
+        <v>22.52497053861017</v>
       </c>
       <c r="T7" t="n">
-        <v>5.522554070499099</v>
+        <v>5.522554070499103</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07050069026169073</v>
+        <v>0.07050069026169077</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,34 +31750,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485651</v>
+        <v>4.873046301485652</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508993</v>
+        <v>49.90608543508994</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380257</v>
+        <v>187.8681175380258</v>
       </c>
       <c r="J11" t="n">
         <v>413.5937135307182</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726059</v>
+        <v>619.869763472606</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216975</v>
+        <v>769.0032542216977</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857429</v>
+        <v>855.6642913857431</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898391</v>
+        <v>869.5098341898392</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294411</v>
+        <v>821.0534800294413</v>
       </c>
       <c r="P11" t="n">
-        <v>700.750149461514</v>
+        <v>700.7501494615141</v>
       </c>
       <c r="Q11" t="n">
         <v>526.234178789559</v>
@@ -31792,7 +31792,7 @@
         <v>21.33176018475345</v>
       </c>
       <c r="U11" t="n">
-        <v>0.389843704118852</v>
+        <v>0.3898437041188521</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,34 +31835,34 @@
         <v>25.18112197191523</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596482</v>
+        <v>89.76921320596483</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783043</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>421.0233277202557</v>
       </c>
       <c r="L12" t="n">
-        <v>544.2170489310826</v>
+        <v>566.1178216256419</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845333</v>
+        <v>660.6327957845334</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147143</v>
+        <v>237.336758373254</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431812</v>
+        <v>620.3452877431813</v>
       </c>
       <c r="P12" t="n">
         <v>497.8817840205473</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071847</v>
+        <v>332.8207874071848</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533297</v>
       </c>
       <c r="S12" t="n">
         <v>48.42963285697589</v>
@@ -31908,25 +31908,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236085</v>
+        <v>2.185880810236086</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737175</v>
+        <v>19.43446756737176</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691794</v>
+        <v>65.73539745691795</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836912</v>
+        <v>154.5417732836913</v>
       </c>
       <c r="K13" t="n">
-        <v>253.9596068619742</v>
+        <v>253.9596068619743</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509177</v>
+        <v>324.9808615509178</v>
       </c>
       <c r="M13" t="n">
-        <v>342.646752826371</v>
+        <v>342.6467528263711</v>
       </c>
       <c r="N13" t="n">
         <v>334.4993788973096</v>
@@ -31938,16 +31938,16 @@
         <v>264.3723481761897</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.037710391678</v>
+        <v>183.0377103916781</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570615</v>
+        <v>98.28514988570616</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929613</v>
+        <v>38.09394102929614</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826908</v>
+        <v>9.33967255282691</v>
       </c>
       <c r="U13" t="n">
         <v>0.1192298623765139</v>
@@ -32072,10 +32072,10 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K15" t="n">
         <v>471.6886536848223</v>
@@ -32087,19 +32087,19 @@
         <v>740.13237155043</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927636</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>571.4938338238242</v>
+        <v>357.2897453669905</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982452</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
         <v>54.25758340862159</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>170.9292585737929</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319848</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32555,10 +32555,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>362.180468412921</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>628.2482078836097</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,25 +33020,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>454.1257695262137</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33263,13 +33263,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M30" t="n">
-        <v>581.3243739860829</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33503,7 +33503,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,16 +33746,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>382.1329742631541</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33901,7 +33901,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33974,7 +33974,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>729.0844763571695</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,16 +34775,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>26.13373767211347</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="N3" t="n">
         <v>212.1757243460657</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877686</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.51231025789548</v>
+        <v>63.51231025789562</v>
       </c>
       <c r="K5" t="n">
-        <v>146.4395177398821</v>
+        <v>146.4395177398824</v>
       </c>
       <c r="L5" t="n">
-        <v>218.9456777514712</v>
+        <v>218.9456777514715</v>
       </c>
       <c r="M5" t="n">
-        <v>275.608583565825</v>
+        <v>275.6085835658254</v>
       </c>
       <c r="N5" t="n">
-        <v>284.7286310916947</v>
+        <v>284.728631091695</v>
       </c>
       <c r="O5" t="n">
-        <v>255.3912115304709</v>
+        <v>255.3912115304713</v>
       </c>
       <c r="P5" t="n">
-        <v>183.1209945396253</v>
+        <v>183.1209945396256</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.85690064168179</v>
+        <v>88.85690064168202</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.81957066753426</v>
+        <v>18.81957066753435</v>
       </c>
       <c r="K6" t="n">
-        <v>342.0114810705658</v>
+        <v>111.1099112068433</v>
       </c>
       <c r="L6" t="n">
-        <v>196.191433043561</v>
+        <v>292.5716995165346</v>
       </c>
       <c r="M6" t="n">
-        <v>248.498540702966</v>
+        <v>383.0198440937149</v>
       </c>
       <c r="N6" t="n">
-        <v>269.6297444284712</v>
+        <v>269.6297444284714</v>
       </c>
       <c r="O6" t="n">
-        <v>224.2143021313133</v>
+        <v>224.2143021313135</v>
       </c>
       <c r="P6" t="n">
-        <v>160.4233948017433</v>
+        <v>160.4233948017435</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.81536027239193</v>
+        <v>56.81536027239207</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>127.8969784315182</v>
+        <v>127.8969784315183</v>
       </c>
       <c r="L7" t="n">
-        <v>219.7514066835977</v>
+        <v>219.7514066835978</v>
       </c>
       <c r="M7" t="n">
-        <v>242.1911106588959</v>
+        <v>242.191110658896</v>
       </c>
       <c r="N7" t="n">
-        <v>241.9218589084018</v>
+        <v>241.921858908402</v>
       </c>
       <c r="O7" t="n">
-        <v>207.2759166121674</v>
+        <v>207.2759166121675</v>
       </c>
       <c r="P7" t="n">
-        <v>153.6020898051488</v>
+        <v>153.6020898051489</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.06826641504439</v>
+        <v>22.06826641504445</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>466.4238188159145</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4201198419607</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>232.5478090040319</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276253</v>
+        <v>399.7799124276254</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517103</v>
+        <v>533.2368392517105</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584702</v>
+        <v>625.3180581584704</v>
       </c>
       <c r="N11" t="n">
         <v>640.0967705932483</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077543</v>
+        <v>590.9552686077545</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062444</v>
+        <v>469.5171537062445</v>
       </c>
       <c r="Q11" t="n">
         <v>303.9284889151095</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156615</v>
+        <v>90.52095692156621</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116376</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>283.1818887458967</v>
       </c>
       <c r="L12" t="n">
-        <v>405.6626691512084</v>
+        <v>427.5634418457677</v>
       </c>
       <c r="M12" t="n">
         <v>518.498761862515</v>
       </c>
       <c r="N12" t="n">
-        <v>546.776068031381</v>
+        <v>105.9950462899208</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987368</v>
+        <v>477.7490432987369</v>
       </c>
       <c r="P12" t="n">
-        <v>363.907376606217</v>
+        <v>363.9073766062171</v>
       </c>
       <c r="Q12" t="n">
         <v>192.8390133211632</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936578</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701847</v>
+        <v>61.1825931670185</v>
       </c>
       <c r="K13" t="n">
         <v>231.6901150360914</v>
@@ -35574,19 +35574,19 @@
         <v>352.5708868112339</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882116</v>
+        <v>382.2306297882117</v>
       </c>
       <c r="N13" t="n">
         <v>378.6315512765382</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190457</v>
+        <v>333.5494446190458</v>
       </c>
       <c r="P13" t="n">
         <v>261.6509074410832</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998366</v>
+        <v>96.87566713998369</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053078</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K15" t="n">
         <v>333.8472147104633</v>
@@ -35735,19 +35735,19 @@
         <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094304</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>428.8975893793797</v>
+        <v>214.6935009225461</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.821735783915</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426736</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970737</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875403</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36203,10 +36203,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>224.339029438562</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36911,13 +36911,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M30" t="n">
-        <v>439.1903400640646</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -37151,7 +37151,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37242,7 +37242,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306623</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
         <v>120.4022572998984</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,16 +37394,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>248.1585668488238</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37476,7 +37476,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060447</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096362</v>
       </c>
       <c r="L40" t="n">
         <v>394.3420143191314</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,7 +37950,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060435</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>586.9504424351511</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
